--- a/data/EurA1c_report_opgeschoond_corné.xlsx
+++ b/data/EurA1c_report_opgeschoond_corné.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coko2\Data Science\Proof Of Concept DS\EurA1c-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A529855-EA19-4742-A13B-BC2A561CB196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BBF5C0-5066-4255-8413-812AE9AE173B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{9A0797B7-DC1C-426A-B3A6-72BD373E67C3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="99">
   <si>
     <t>(part of cobas 6000/8000) Roche Diagnostics cobas c 513</t>
   </si>
@@ -285,12 +285,60 @@
   <si>
     <t>Sysmex bx-3010</t>
   </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Abbot</t>
+  </si>
+  <si>
+    <t>Alere</t>
+  </si>
+  <si>
+    <t>BioMajesty</t>
+  </si>
+  <si>
+    <t>Bio-Rad</t>
+  </si>
+  <si>
+    <t>Diasys</t>
+  </si>
+  <si>
+    <t>HemoCue</t>
+  </si>
+  <si>
+    <t>Menarini</t>
+  </si>
+  <si>
+    <t>Mindray</t>
+  </si>
+  <si>
+    <t>Ortho Clinical Diagnostics</t>
+  </si>
+  <si>
+    <t>Not specified</t>
+  </si>
+  <si>
+    <t>Sebia</t>
+  </si>
+  <si>
+    <t>Siemens</t>
+  </si>
+  <si>
+    <t>Tosoh</t>
+  </si>
+  <si>
+    <t>Trinity Biotech</t>
+  </si>
+  <si>
+    <t>Beckman Coulter</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +350,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -339,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -351,6 +407,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -665,18 +722,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AC231E-5D5D-499E-AC22-04D7F694044A}">
-  <dimension ref="A1:J515"/>
+  <dimension ref="A1:K515"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="70.6328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>62</v>
       </c>
@@ -707,8 +764,11 @@
       <c r="J1" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -739,8 +799,11 @@
       <c r="J2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,8 +834,11 @@
       <c r="J3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -803,8 +869,11 @@
       <c r="J4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -835,8 +904,11 @@
       <c r="J5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -867,8 +939,11 @@
       <c r="J6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -899,8 +974,11 @@
       <c r="J7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -931,8 +1009,11 @@
       <c r="J8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -963,8 +1044,11 @@
       <c r="J9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -995,8 +1079,11 @@
       <c r="J10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1027,8 +1114,11 @@
       <c r="J11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1149,11 @@
       <c r="J12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1091,8 +1184,11 @@
       <c r="J13" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1123,8 +1219,11 @@
       <c r="J14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1155,8 +1254,11 @@
       <c r="J15" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -1187,8 +1289,11 @@
       <c r="J16" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1219,8 +1324,11 @@
       <c r="J17" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -1251,8 +1359,11 @@
       <c r="J18" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -1283,8 +1394,11 @@
       <c r="J19" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1315,8 +1429,11 @@
       <c r="J20" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1347,8 +1464,11 @@
       <c r="J21" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1379,8 +1499,11 @@
       <c r="J22" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1411,8 +1534,11 @@
       <c r="J23" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -1443,8 +1569,11 @@
       <c r="J24" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -1475,8 +1604,11 @@
       <c r="J25" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -1507,8 +1639,11 @@
       <c r="J26" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -1539,8 +1674,11 @@
       <c r="J27" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
@@ -1571,8 +1709,11 @@
       <c r="J28" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -1603,8 +1744,11 @@
       <c r="J29" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -1635,8 +1779,11 @@
       <c r="J30" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -1667,8 +1814,11 @@
       <c r="J31" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1699,8 +1849,11 @@
       <c r="J32" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -1731,8 +1884,11 @@
       <c r="J33" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -1763,8 +1919,11 @@
       <c r="J34" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -1795,8 +1954,11 @@
       <c r="J35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -1827,8 +1989,11 @@
       <c r="J36" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -1859,8 +2024,11 @@
       <c r="J37" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -1891,8 +2059,11 @@
       <c r="J38" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -1923,8 +2094,11 @@
       <c r="J39" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -1955,8 +2129,11 @@
       <c r="J40" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -1987,8 +2164,11 @@
       <c r="J41" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
@@ -2019,8 +2199,11 @@
       <c r="J42" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -2051,8 +2234,11 @@
       <c r="J43" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
@@ -2083,8 +2269,11 @@
       <c r="J44" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
@@ -2115,8 +2304,11 @@
       <c r="J45" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
@@ -2147,8 +2339,11 @@
       <c r="J46" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
@@ -2179,8 +2374,11 @@
       <c r="J47" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
@@ -2211,8 +2409,11 @@
       <c r="J48" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -2243,8 +2444,11 @@
       <c r="J49" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -2275,8 +2479,11 @@
       <c r="J50" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -2307,8 +2514,11 @@
       <c r="J51" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -2339,8 +2549,11 @@
       <c r="J52" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -2371,8 +2584,11 @@
       <c r="J53" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
@@ -2403,8 +2619,11 @@
       <c r="J54" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
@@ -2435,8 +2654,11 @@
       <c r="J55" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
@@ -2467,8 +2689,11 @@
       <c r="J56" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
@@ -2499,8 +2724,11 @@
       <c r="J57" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
@@ -2531,8 +2759,11 @@
       <c r="J58" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
@@ -2563,8 +2794,11 @@
       <c r="J59" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
@@ -2595,8 +2829,11 @@
       <c r="J60" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -2627,8 +2864,11 @@
       <c r="J61" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -2659,8 +2899,11 @@
       <c r="J62" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
@@ -2691,8 +2934,11 @@
       <c r="J63" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>77</v>
       </c>
@@ -2723,8 +2969,11 @@
       <c r="J64" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
@@ -2755,8 +3004,11 @@
       <c r="J65" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>77</v>
       </c>
@@ -2787,8 +3039,11 @@
       <c r="J66" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>77</v>
       </c>
@@ -2819,8 +3074,11 @@
       <c r="J67" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>77</v>
       </c>
@@ -2851,8 +3109,11 @@
       <c r="J68" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>77</v>
       </c>
@@ -2883,8 +3144,11 @@
       <c r="J69" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>77</v>
       </c>
@@ -2915,8 +3179,11 @@
       <c r="J70" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>77</v>
       </c>
@@ -2947,8 +3214,11 @@
       <c r="J71" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>77</v>
       </c>
@@ -2979,8 +3249,11 @@
       <c r="J72" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
@@ -3011,8 +3284,11 @@
       <c r="J73" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
@@ -3043,8 +3319,11 @@
       <c r="J74" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>77</v>
       </c>
@@ -3075,8 +3354,11 @@
       <c r="J75" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>60</v>
       </c>
@@ -3107,8 +3389,11 @@
       <c r="J76" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K76" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>60</v>
       </c>
@@ -3139,8 +3424,11 @@
       <c r="J77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K77" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>60</v>
       </c>
@@ -3171,8 +3459,11 @@
       <c r="J78" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K78" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>60</v>
       </c>
@@ -3203,8 +3494,11 @@
       <c r="J79" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K79" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -3235,8 +3529,11 @@
       <c r="J80" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K80" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
@@ -3267,8 +3564,11 @@
       <c r="J81" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K81" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>78</v>
       </c>
@@ -3299,8 +3599,11 @@
       <c r="J82" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K82" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>78</v>
       </c>
@@ -3331,8 +3634,11 @@
       <c r="J83" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K83" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>78</v>
       </c>
@@ -3363,8 +3669,11 @@
       <c r="J84" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K84" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>78</v>
       </c>
@@ -3395,8 +3704,11 @@
       <c r="J85" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K85" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>78</v>
       </c>
@@ -3427,8 +3739,11 @@
       <c r="J86" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K86" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>78</v>
       </c>
@@ -3459,8 +3774,11 @@
       <c r="J87" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K87" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>78</v>
       </c>
@@ -3491,8 +3809,11 @@
       <c r="J88" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K88" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3523,8 +3844,11 @@
       <c r="J89" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K89" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>12</v>
       </c>
@@ -3555,8 +3879,11 @@
       <c r="J90" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>12</v>
       </c>
@@ -3587,8 +3914,11 @@
       <c r="J91" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K91" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>12</v>
       </c>
@@ -3619,8 +3949,11 @@
       <c r="J92" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K92" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>12</v>
       </c>
@@ -3651,8 +3984,11 @@
       <c r="J93" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K93" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>11</v>
       </c>
@@ -3683,8 +4019,11 @@
       <c r="J94" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K94" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>11</v>
       </c>
@@ -3715,8 +4054,11 @@
       <c r="J95" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K95" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>11</v>
       </c>
@@ -3747,8 +4089,11 @@
       <c r="J96" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K96" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>11</v>
       </c>
@@ -3779,8 +4124,11 @@
       <c r="J97" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K97" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>11</v>
       </c>
@@ -3811,8 +4159,11 @@
       <c r="J98" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K98" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
@@ -3843,8 +4194,11 @@
       <c r="J99" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K99" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>11</v>
       </c>
@@ -3875,8 +4229,11 @@
       <c r="J100" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K100" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>11</v>
       </c>
@@ -3907,8 +4264,11 @@
       <c r="J101" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K101" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>11</v>
       </c>
@@ -3939,8 +4299,11 @@
       <c r="J102" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>11</v>
       </c>
@@ -3971,8 +4334,11 @@
       <c r="J103" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K103" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>11</v>
       </c>
@@ -4003,8 +4369,11 @@
       <c r="J104" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K104" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>11</v>
       </c>
@@ -4035,8 +4404,11 @@
       <c r="J105" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K105" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>11</v>
       </c>
@@ -4067,8 +4439,11 @@
       <c r="J106" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K106" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>11</v>
       </c>
@@ -4099,8 +4474,11 @@
       <c r="J107" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K107" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>11</v>
       </c>
@@ -4131,8 +4509,11 @@
       <c r="J108" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K108" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>11</v>
       </c>
@@ -4163,8 +4544,11 @@
       <c r="J109" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K109" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>11</v>
       </c>
@@ -4195,8 +4579,11 @@
       <c r="J110" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K110" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>11</v>
       </c>
@@ -4227,8 +4614,11 @@
       <c r="J111" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K111" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>11</v>
       </c>
@@ -4259,8 +4649,11 @@
       <c r="J112" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K112" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>11</v>
       </c>
@@ -4291,8 +4684,11 @@
       <c r="J113" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K113" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>7</v>
       </c>
@@ -4323,8 +4719,11 @@
       <c r="J114" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K114" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>7</v>
       </c>
@@ -4355,8 +4754,11 @@
       <c r="J115" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K115" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>7</v>
       </c>
@@ -4387,8 +4789,11 @@
       <c r="J116" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K116" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>7</v>
       </c>
@@ -4419,8 +4824,11 @@
       <c r="J117" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K117" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>7</v>
       </c>
@@ -4451,8 +4859,11 @@
       <c r="J118" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K118" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>7</v>
       </c>
@@ -4483,8 +4894,11 @@
       <c r="J119" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K119" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>7</v>
       </c>
@@ -4515,8 +4929,11 @@
       <c r="J120" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K120" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>7</v>
       </c>
@@ -4547,8 +4964,11 @@
       <c r="J121" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K121" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>7</v>
       </c>
@@ -4579,8 +4999,11 @@
       <c r="J122" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K122" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>7</v>
       </c>
@@ -4611,8 +5034,11 @@
       <c r="J123" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K123" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>7</v>
       </c>
@@ -4643,8 +5069,11 @@
       <c r="J124" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K124" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>7</v>
       </c>
@@ -4675,8 +5104,11 @@
       <c r="J125" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K125" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>7</v>
       </c>
@@ -4707,8 +5139,11 @@
       <c r="J126" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>7</v>
       </c>
@@ -4739,8 +5174,11 @@
       <c r="J127" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K127" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>7</v>
       </c>
@@ -4771,8 +5209,11 @@
       <c r="J128" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K128" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>7</v>
       </c>
@@ -4803,8 +5244,11 @@
       <c r="J129" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K129" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>7</v>
       </c>
@@ -4835,8 +5279,11 @@
       <c r="J130" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K130" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>7</v>
       </c>
@@ -4867,8 +5314,11 @@
       <c r="J131" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K131" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>7</v>
       </c>
@@ -4899,8 +5349,11 @@
       <c r="J132" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K132" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>7</v>
       </c>
@@ -4931,8 +5384,11 @@
       <c r="J133" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K133" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>13</v>
       </c>
@@ -4963,8 +5419,11 @@
       <c r="J134" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K134" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>13</v>
       </c>
@@ -4995,8 +5454,11 @@
       <c r="J135" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K135" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>13</v>
       </c>
@@ -5027,8 +5489,11 @@
       <c r="J136" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K136" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -5059,8 +5524,11 @@
       <c r="J137" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K137" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>13</v>
       </c>
@@ -5091,8 +5559,11 @@
       <c r="J138" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K138" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>13</v>
       </c>
@@ -5123,8 +5594,11 @@
       <c r="J139" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K139" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>13</v>
       </c>
@@ -5155,8 +5629,11 @@
       <c r="J140" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K140" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -5187,8 +5664,11 @@
       <c r="J141" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K141" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>14</v>
       </c>
@@ -5219,8 +5699,11 @@
       <c r="J142" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K142" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>14</v>
       </c>
@@ -5251,8 +5734,11 @@
       <c r="J143" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K143" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>14</v>
       </c>
@@ -5283,8 +5769,11 @@
       <c r="J144" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K144" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>14</v>
       </c>
@@ -5315,8 +5804,11 @@
       <c r="J145" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K145" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>14</v>
       </c>
@@ -5347,8 +5839,11 @@
       <c r="J146" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K146" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>14</v>
       </c>
@@ -5379,8 +5874,11 @@
       <c r="J147" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K147" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>14</v>
       </c>
@@ -5411,8 +5909,11 @@
       <c r="J148" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K148" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>14</v>
       </c>
@@ -5443,8 +5944,11 @@
       <c r="J149" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K149" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>14</v>
       </c>
@@ -5475,8 +5979,11 @@
       <c r="J150" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K150" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>14</v>
       </c>
@@ -5507,8 +6014,11 @@
       <c r="J151" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K151" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>14</v>
       </c>
@@ -5539,8 +6049,11 @@
       <c r="J152" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K152" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>14</v>
       </c>
@@ -5571,8 +6084,11 @@
       <c r="J153" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K153" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>14</v>
       </c>
@@ -5603,8 +6119,11 @@
       <c r="J154" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K154" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>14</v>
       </c>
@@ -5635,8 +6154,11 @@
       <c r="J155" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K155" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>14</v>
       </c>
@@ -5667,8 +6189,11 @@
       <c r="J156" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K156" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>14</v>
       </c>
@@ -5699,8 +6224,11 @@
       <c r="J157" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K157" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>14</v>
       </c>
@@ -5731,8 +6259,11 @@
       <c r="J158" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K158" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>14</v>
       </c>
@@ -5763,8 +6294,11 @@
       <c r="J159" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K159" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>14</v>
       </c>
@@ -5795,8 +6329,11 @@
       <c r="J160" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K160" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>14</v>
       </c>
@@ -5827,8 +6364,11 @@
       <c r="J161" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K161" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>15</v>
       </c>
@@ -5859,8 +6399,11 @@
       <c r="J162" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K162" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>15</v>
       </c>
@@ -5891,8 +6434,11 @@
       <c r="J163" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K163" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>16</v>
       </c>
@@ -5923,8 +6469,11 @@
       <c r="J164" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K164" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>16</v>
       </c>
@@ -5955,8 +6504,11 @@
       <c r="J165" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K165" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>16</v>
       </c>
@@ -5987,8 +6539,11 @@
       <c r="J166" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K166" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>16</v>
       </c>
@@ -6019,8 +6574,11 @@
       <c r="J167" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K167" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>17</v>
       </c>
@@ -6051,8 +6609,11 @@
       <c r="J168" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K168" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>17</v>
       </c>
@@ -6083,8 +6644,11 @@
       <c r="J169" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K169" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>17</v>
       </c>
@@ -6115,8 +6679,11 @@
       <c r="J170" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K170" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>17</v>
       </c>
@@ -6147,8 +6714,11 @@
       <c r="J171" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K171" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>17</v>
       </c>
@@ -6179,8 +6749,11 @@
       <c r="J172" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K172" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>17</v>
       </c>
@@ -6211,8 +6784,11 @@
       <c r="J173" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K173" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>18</v>
       </c>
@@ -6243,8 +6819,11 @@
       <c r="J174" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K174" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>18</v>
       </c>
@@ -6275,8 +6854,11 @@
       <c r="J175" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K175" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>18</v>
       </c>
@@ -6307,8 +6889,11 @@
       <c r="J176" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K176" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>18</v>
       </c>
@@ -6339,8 +6924,11 @@
       <c r="J177" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K177" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>19</v>
       </c>
@@ -6371,8 +6959,11 @@
       <c r="J178" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K178" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>19</v>
       </c>
@@ -6403,8 +6994,11 @@
       <c r="J179" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K179" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>19</v>
       </c>
@@ -6435,8 +7029,11 @@
       <c r="J180" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K180" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>19</v>
       </c>
@@ -6467,8 +7064,11 @@
       <c r="J181" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K181" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>20</v>
       </c>
@@ -6499,8 +7099,11 @@
       <c r="J182" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K182" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>20</v>
       </c>
@@ -6531,8 +7134,11 @@
       <c r="J183" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K183" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>23</v>
       </c>
@@ -6563,8 +7169,11 @@
       <c r="J184" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K184" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>23</v>
       </c>
@@ -6595,8 +7204,11 @@
       <c r="J185" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K185" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>23</v>
       </c>
@@ -6627,8 +7239,11 @@
       <c r="J186" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K186" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>23</v>
       </c>
@@ -6659,8 +7274,11 @@
       <c r="J187" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K187" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>23</v>
       </c>
@@ -6691,8 +7309,11 @@
       <c r="J188" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K188" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>23</v>
       </c>
@@ -6723,8 +7344,11 @@
       <c r="J189" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K189" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>23</v>
       </c>
@@ -6755,8 +7379,11 @@
       <c r="J190" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K190" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>23</v>
       </c>
@@ -6787,8 +7414,11 @@
       <c r="J191" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K191" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>23</v>
       </c>
@@ -6819,8 +7449,11 @@
       <c r="J192" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K192" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>23</v>
       </c>
@@ -6851,8 +7484,11 @@
       <c r="J193" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K193" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>23</v>
       </c>
@@ -6883,8 +7519,11 @@
       <c r="J194" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K194" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>23</v>
       </c>
@@ -6915,8 +7554,11 @@
       <c r="J195" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K195" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>23</v>
       </c>
@@ -6947,8 +7589,11 @@
       <c r="J196" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K196" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>23</v>
       </c>
@@ -6979,8 +7624,11 @@
       <c r="J197" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K197" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>23</v>
       </c>
@@ -7011,8 +7659,11 @@
       <c r="J198" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K198" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>23</v>
       </c>
@@ -7043,8 +7694,11 @@
       <c r="J199" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K199" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>23</v>
       </c>
@@ -7075,8 +7729,11 @@
       <c r="J200" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K200" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>23</v>
       </c>
@@ -7107,8 +7764,11 @@
       <c r="J201" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K201" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>23</v>
       </c>
@@ -7139,8 +7799,11 @@
       <c r="J202" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K202" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>23</v>
       </c>
@@ -7171,8 +7834,11 @@
       <c r="J203" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K203" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>21</v>
       </c>
@@ -7203,8 +7869,11 @@
       <c r="J204" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K204" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>21</v>
       </c>
@@ -7235,8 +7904,11 @@
       <c r="J205" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K205" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>21</v>
       </c>
@@ -7267,8 +7939,11 @@
       <c r="J206" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K206" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>21</v>
       </c>
@@ -7299,8 +7974,11 @@
       <c r="J207" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K207" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>21</v>
       </c>
@@ -7331,8 +8009,11 @@
       <c r="J208" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K208" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>21</v>
       </c>
@@ -7363,8 +8044,11 @@
       <c r="J209" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K209" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>21</v>
       </c>
@@ -7395,8 +8079,11 @@
       <c r="J210" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K210" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>21</v>
       </c>
@@ -7427,8 +8114,11 @@
       <c r="J211" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K211" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>21</v>
       </c>
@@ -7459,8 +8149,11 @@
       <c r="J212" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K212" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>21</v>
       </c>
@@ -7491,8 +8184,11 @@
       <c r="J213" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K213" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>21</v>
       </c>
@@ -7523,8 +8219,11 @@
       <c r="J214" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K214" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>21</v>
       </c>
@@ -7555,8 +8254,11 @@
       <c r="J215" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K215" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>21</v>
       </c>
@@ -7587,8 +8289,11 @@
       <c r="J216" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K216" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>21</v>
       </c>
@@ -7619,8 +8324,11 @@
       <c r="J217" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K217" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>21</v>
       </c>
@@ -7651,8 +8359,11 @@
       <c r="J218" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K218" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>21</v>
       </c>
@@ -7683,8 +8394,11 @@
       <c r="J219" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K219" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>21</v>
       </c>
@@ -7715,8 +8429,11 @@
       <c r="J220" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K220" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>21</v>
       </c>
@@ -7747,8 +8464,11 @@
       <c r="J221" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K221" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>21</v>
       </c>
@@ -7779,8 +8499,11 @@
       <c r="J222" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K222" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>21</v>
       </c>
@@ -7811,8 +8534,11 @@
       <c r="J223" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K223" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>22</v>
       </c>
@@ -7843,8 +8569,11 @@
       <c r="J224" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K224" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>22</v>
       </c>
@@ -7875,8 +8604,11 @@
       <c r="J225" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K225" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>22</v>
       </c>
@@ -7907,8 +8639,11 @@
       <c r="J226" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K226" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>22</v>
       </c>
@@ -7939,8 +8674,11 @@
       <c r="J227" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K227" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>22</v>
       </c>
@@ -7971,8 +8709,11 @@
       <c r="J228" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K228" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>22</v>
       </c>
@@ -8003,8 +8744,11 @@
       <c r="J229" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K229" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>22</v>
       </c>
@@ -8035,8 +8779,11 @@
       <c r="J230" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K230" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>22</v>
       </c>
@@ -8067,8 +8814,11 @@
       <c r="J231" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K231" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>79</v>
       </c>
@@ -8099,8 +8849,11 @@
       <c r="J232" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K232" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>79</v>
       </c>
@@ -8131,8 +8884,11 @@
       <c r="J233" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K233" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>61</v>
       </c>
@@ -8163,8 +8919,11 @@
       <c r="J234" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K234" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>61</v>
       </c>
@@ -8195,8 +8954,11 @@
       <c r="J235" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K235" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>24</v>
       </c>
@@ -8227,8 +8989,11 @@
       <c r="J236" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K236" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>24</v>
       </c>
@@ -8259,8 +9024,11 @@
       <c r="J237" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K237" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>25</v>
       </c>
@@ -8291,8 +9059,11 @@
       <c r="J238" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K238" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>25</v>
       </c>
@@ -8323,8 +9094,11 @@
       <c r="J239" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K239" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>25</v>
       </c>
@@ -8355,8 +9129,11 @@
       <c r="J240" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K240" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>25</v>
       </c>
@@ -8387,8 +9164,11 @@
       <c r="J241" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K241" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>25</v>
       </c>
@@ -8419,8 +9199,11 @@
       <c r="J242" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K242" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>25</v>
       </c>
@@ -8451,8 +9234,11 @@
       <c r="J243" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K243" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>25</v>
       </c>
@@ -8483,8 +9269,11 @@
       <c r="J244" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K244" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>25</v>
       </c>
@@ -8515,8 +9304,11 @@
       <c r="J245" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K245" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>25</v>
       </c>
@@ -8547,8 +9339,11 @@
       <c r="J246" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K246" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>25</v>
       </c>
@@ -8579,8 +9374,11 @@
       <c r="J247" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K247" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>25</v>
       </c>
@@ -8611,8 +9409,11 @@
       <c r="J248" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K248" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>25</v>
       </c>
@@ -8643,8 +9444,11 @@
       <c r="J249" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K249" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>25</v>
       </c>
@@ -8675,8 +9479,11 @@
       <c r="J250" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K250" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>25</v>
       </c>
@@ -8707,8 +9514,11 @@
       <c r="J251" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K251" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>25</v>
       </c>
@@ -8739,8 +9549,11 @@
       <c r="J252" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K252" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>25</v>
       </c>
@@ -8771,8 +9584,11 @@
       <c r="J253" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K253" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>25</v>
       </c>
@@ -8803,8 +9619,11 @@
       <c r="J254" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K254" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>25</v>
       </c>
@@ -8835,8 +9654,11 @@
       <c r="J255" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K255" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>25</v>
       </c>
@@ -8867,8 +9689,11 @@
       <c r="J256" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K256" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>25</v>
       </c>
@@ -8899,8 +9724,11 @@
       <c r="J257" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K257" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>26</v>
       </c>
@@ -8931,8 +9759,11 @@
       <c r="J258" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K258" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>26</v>
       </c>
@@ -8963,8 +9794,11 @@
       <c r="J259" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K259" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>27</v>
       </c>
@@ -8995,8 +9829,11 @@
       <c r="J260" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K260" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>27</v>
       </c>
@@ -9027,8 +9864,11 @@
       <c r="J261" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K261" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>27</v>
       </c>
@@ -9059,8 +9899,11 @@
       <c r="J262" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K262" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>27</v>
       </c>
@@ -9091,8 +9934,11 @@
       <c r="J263" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K263" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>27</v>
       </c>
@@ -9123,8 +9969,11 @@
       <c r="J264" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K264" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>27</v>
       </c>
@@ -9155,8 +10004,11 @@
       <c r="J265" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K265" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>27</v>
       </c>
@@ -9187,8 +10039,11 @@
       <c r="J266" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K266" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>27</v>
       </c>
@@ -9219,8 +10074,11 @@
       <c r="J267" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K267" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>27</v>
       </c>
@@ -9251,8 +10109,11 @@
       <c r="J268" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K268" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>27</v>
       </c>
@@ -9283,8 +10144,11 @@
       <c r="J269" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K269" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>27</v>
       </c>
@@ -9315,8 +10179,11 @@
       <c r="J270" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K270" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>27</v>
       </c>
@@ -9347,8 +10214,11 @@
       <c r="J271" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K271" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>28</v>
       </c>
@@ -9379,8 +10249,11 @@
       <c r="J272" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K272" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>28</v>
       </c>
@@ -9411,8 +10284,11 @@
       <c r="J273" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K273" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>29</v>
       </c>
@@ -9443,8 +10319,11 @@
       <c r="J274" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K274" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>29</v>
       </c>
@@ -9475,8 +10354,11 @@
       <c r="J275" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K275" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>30</v>
       </c>
@@ -9507,8 +10389,11 @@
       <c r="J276" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K276" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>30</v>
       </c>
@@ -9539,8 +10424,11 @@
       <c r="J277" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K277" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>31</v>
       </c>
@@ -9571,8 +10459,11 @@
       <c r="J278" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K278" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>31</v>
       </c>
@@ -9603,8 +10494,11 @@
       <c r="J279" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K279" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>80</v>
       </c>
@@ -9635,8 +10529,11 @@
       <c r="J280" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K280" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>80</v>
       </c>
@@ -9667,8 +10564,11 @@
       <c r="J281" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K281" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
         <v>80</v>
       </c>
@@ -9699,8 +10599,11 @@
       <c r="J282" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K282" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
         <v>80</v>
       </c>
@@ -9731,8 +10634,11 @@
       <c r="J283" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K283" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>80</v>
       </c>
@@ -9763,8 +10669,11 @@
       <c r="J284" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K284" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>80</v>
       </c>
@@ -9795,8 +10704,11 @@
       <c r="J285" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K285" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>80</v>
       </c>
@@ -9827,8 +10739,11 @@
       <c r="J286" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K286" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>80</v>
       </c>
@@ -9859,8 +10774,11 @@
       <c r="J287" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K287" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>32</v>
       </c>
@@ -9891,8 +10809,11 @@
       <c r="J288" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K288" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>32</v>
       </c>
@@ -9923,8 +10844,11 @@
       <c r="J289" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K289" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>33</v>
       </c>
@@ -9955,8 +10879,11 @@
       <c r="J290" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K290" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>33</v>
       </c>
@@ -9987,8 +10914,11 @@
       <c r="J291" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K291" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>33</v>
       </c>
@@ -10019,8 +10949,11 @@
       <c r="J292" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K292" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
         <v>33</v>
       </c>
@@ -10051,8 +10984,11 @@
       <c r="J293" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K293" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
         <v>33</v>
       </c>
@@ -10083,8 +11019,11 @@
       <c r="J294" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K294" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
         <v>33</v>
       </c>
@@ -10115,8 +11054,11 @@
       <c r="J295" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K295" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
         <v>81</v>
       </c>
@@ -10147,8 +11089,11 @@
       <c r="J296" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K296" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
         <v>81</v>
       </c>
@@ -10179,8 +11124,11 @@
       <c r="J297" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K297" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
         <v>34</v>
       </c>
@@ -10211,8 +11159,11 @@
       <c r="J298" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K298" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
         <v>34</v>
       </c>
@@ -10243,8 +11194,11 @@
       <c r="J299" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K299" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
         <v>34</v>
       </c>
@@ -10275,8 +11229,11 @@
       <c r="J300" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K300" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
         <v>34</v>
       </c>
@@ -10307,8 +11264,11 @@
       <c r="J301" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K301" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
         <v>34</v>
       </c>
@@ -10339,8 +11299,11 @@
       <c r="J302" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K302" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
         <v>34</v>
       </c>
@@ -10371,8 +11334,11 @@
       <c r="J303" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K303" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
         <v>34</v>
       </c>
@@ -10403,8 +11369,11 @@
       <c r="J304" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K304" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
         <v>34</v>
       </c>
@@ -10435,8 +11404,11 @@
       <c r="J305" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K305" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
         <v>35</v>
       </c>
@@ -10467,8 +11439,11 @@
       <c r="J306" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K306" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
         <v>35</v>
       </c>
@@ -10499,8 +11474,11 @@
       <c r="J307" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K307" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
         <v>35</v>
       </c>
@@ -10531,8 +11509,11 @@
       <c r="J308" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K308" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
         <v>35</v>
       </c>
@@ -10563,8 +11544,11 @@
       <c r="J309" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K309" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
         <v>36</v>
       </c>
@@ -10595,8 +11579,11 @@
       <c r="J310" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K310" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
         <v>36</v>
       </c>
@@ -10627,8 +11614,11 @@
       <c r="J311" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K311" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
         <v>36</v>
       </c>
@@ -10659,8 +11649,11 @@
       <c r="J312" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K312" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
         <v>36</v>
       </c>
@@ -10691,8 +11684,11 @@
       <c r="J313" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K313" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
         <v>37</v>
       </c>
@@ -10723,8 +11719,11 @@
       <c r="J314" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K314" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
         <v>37</v>
       </c>
@@ -10755,8 +11754,11 @@
       <c r="J315" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K315" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
         <v>37</v>
       </c>
@@ -10787,8 +11789,11 @@
       <c r="J316" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K316" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
         <v>37</v>
       </c>
@@ -10819,8 +11824,11 @@
       <c r="J317" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K317" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
         <v>37</v>
       </c>
@@ -10851,8 +11859,11 @@
       <c r="J318" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K318" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
         <v>37</v>
       </c>
@@ -10883,8 +11894,11 @@
       <c r="J319" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K319" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
         <v>37</v>
       </c>
@@ -10915,8 +11929,11 @@
       <c r="J320" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K320" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
         <v>37</v>
       </c>
@@ -10947,8 +11964,11 @@
       <c r="J321" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K321" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
         <v>37</v>
       </c>
@@ -10979,8 +11999,11 @@
       <c r="J322" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K322" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
         <v>37</v>
       </c>
@@ -11011,8 +12034,11 @@
       <c r="J323" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K323" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
         <v>37</v>
       </c>
@@ -11043,8 +12069,11 @@
       <c r="J324" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K324" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
         <v>37</v>
       </c>
@@ -11075,8 +12104,11 @@
       <c r="J325" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K325" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
         <v>37</v>
       </c>
@@ -11107,8 +12139,11 @@
       <c r="J326" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K326" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
         <v>37</v>
       </c>
@@ -11139,8 +12174,11 @@
       <c r="J327" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K327" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
         <v>37</v>
       </c>
@@ -11171,8 +12209,11 @@
       <c r="J328" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K328" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
         <v>37</v>
       </c>
@@ -11203,8 +12244,11 @@
       <c r="J329" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K329" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
         <v>38</v>
       </c>
@@ -11235,8 +12279,11 @@
       <c r="J330" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K330" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
         <v>38</v>
       </c>
@@ -11267,8 +12314,11 @@
       <c r="J331" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K331" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
         <v>38</v>
       </c>
@@ -11299,8 +12349,11 @@
       <c r="J332" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K332" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
         <v>38</v>
       </c>
@@ -11331,8 +12384,11 @@
       <c r="J333" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K333" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
         <v>39</v>
       </c>
@@ -11363,8 +12419,11 @@
       <c r="J334" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K334" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
         <v>39</v>
       </c>
@@ -11395,8 +12454,11 @@
       <c r="J335" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K335" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
         <v>39</v>
       </c>
@@ -11427,8 +12489,11 @@
       <c r="J336" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K336" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
         <v>39</v>
       </c>
@@ -11459,8 +12524,11 @@
       <c r="J337" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K337" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
         <v>39</v>
       </c>
@@ -11491,8 +12559,11 @@
       <c r="J338" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K338" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
         <v>39</v>
       </c>
@@ -11523,8 +12594,11 @@
       <c r="J339" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K339" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
         <v>39</v>
       </c>
@@ -11555,8 +12629,11 @@
       <c r="J340" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K340" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
         <v>39</v>
       </c>
@@ -11587,8 +12664,11 @@
       <c r="J341" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K341" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
         <v>39</v>
       </c>
@@ -11619,8 +12699,11 @@
       <c r="J342" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K342" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
         <v>39</v>
       </c>
@@ -11651,8 +12734,11 @@
       <c r="J343" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K343" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
         <v>39</v>
       </c>
@@ -11683,8 +12769,11 @@
       <c r="J344" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K344" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
         <v>39</v>
       </c>
@@ -11715,8 +12804,11 @@
       <c r="J345" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K345" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
         <v>39</v>
       </c>
@@ -11747,8 +12839,11 @@
       <c r="J346" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K346" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
         <v>39</v>
       </c>
@@ -11779,8 +12874,11 @@
       <c r="J347" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K347" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
         <v>39</v>
       </c>
@@ -11811,8 +12909,11 @@
       <c r="J348" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K348" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
         <v>39</v>
       </c>
@@ -11843,8 +12944,11 @@
       <c r="J349" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K349" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
         <v>40</v>
       </c>
@@ -11875,8 +12979,11 @@
       <c r="J350" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K350" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
         <v>40</v>
       </c>
@@ -11907,8 +13014,11 @@
       <c r="J351" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K351" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
         <v>40</v>
       </c>
@@ -11939,8 +13049,11 @@
       <c r="J352" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K352" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
         <v>40</v>
       </c>
@@ -11971,8 +13084,11 @@
       <c r="J353" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K353" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
         <v>41</v>
       </c>
@@ -12003,8 +13119,11 @@
       <c r="J354" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K354" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
         <v>41</v>
       </c>
@@ -12035,8 +13154,11 @@
       <c r="J355" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K355" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
         <v>41</v>
       </c>
@@ -12067,8 +13189,11 @@
       <c r="J356" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K356" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
         <v>41</v>
       </c>
@@ -12099,8 +13224,11 @@
       <c r="J357" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K357" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
         <v>41</v>
       </c>
@@ -12131,8 +13259,11 @@
       <c r="J358" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K358" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
         <v>41</v>
       </c>
@@ -12163,8 +13294,11 @@
       <c r="J359" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K359" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
         <v>41</v>
       </c>
@@ -12195,8 +13329,11 @@
       <c r="J360" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K360" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
         <v>41</v>
       </c>
@@ -12227,8 +13364,11 @@
       <c r="J361" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K361" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
         <v>41</v>
       </c>
@@ -12259,8 +13399,11 @@
       <c r="J362" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K362" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
         <v>41</v>
       </c>
@@ -12291,8 +13434,11 @@
       <c r="J363" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K363" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
         <v>41</v>
       </c>
@@ -12323,8 +13469,11 @@
       <c r="J364" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K364" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
         <v>41</v>
       </c>
@@ -12355,8 +13504,11 @@
       <c r="J365" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K365" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A366" s="1" t="s">
         <v>42</v>
       </c>
@@ -12387,8 +13539,11 @@
       <c r="J366" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K366" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
         <v>42</v>
       </c>
@@ -12419,8 +13574,11 @@
       <c r="J367" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K367" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
         <v>42</v>
       </c>
@@ -12451,8 +13609,11 @@
       <c r="J368" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K368" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A369" s="1" t="s">
         <v>42</v>
       </c>
@@ -12483,8 +13644,11 @@
       <c r="J369" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K369" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A370" s="1" t="s">
         <v>43</v>
       </c>
@@ -12515,8 +13679,11 @@
       <c r="J370" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K370" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A371" s="1" t="s">
         <v>43</v>
       </c>
@@ -12547,8 +13714,11 @@
       <c r="J371" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K371" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
         <v>43</v>
       </c>
@@ -12579,8 +13749,11 @@
       <c r="J372" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K372" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A373" s="1" t="s">
         <v>43</v>
       </c>
@@ -12611,8 +13784,11 @@
       <c r="J373" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K373" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A374" s="1" t="s">
         <v>43</v>
       </c>
@@ -12643,8 +13819,11 @@
       <c r="J374" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K374" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
         <v>43</v>
       </c>
@@ -12675,8 +13854,11 @@
       <c r="J375" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K375" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
         <v>46</v>
       </c>
@@ -12707,8 +13889,11 @@
       <c r="J376" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K376" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A377" s="1" t="s">
         <v>46</v>
       </c>
@@ -12739,8 +13924,11 @@
       <c r="J377" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K377" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A378" s="1" t="s">
         <v>45</v>
       </c>
@@ -12771,8 +13959,11 @@
       <c r="J378" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K378" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A379" s="1" t="s">
         <v>45</v>
       </c>
@@ -12803,8 +13994,11 @@
       <c r="J379" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K379" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
         <v>45</v>
       </c>
@@ -12835,8 +14029,11 @@
       <c r="J380" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K380" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A381" s="1" t="s">
         <v>45</v>
       </c>
@@ -12867,8 +14064,11 @@
       <c r="J381" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K381" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A382" s="1" t="s">
         <v>44</v>
       </c>
@@ -12899,8 +14099,11 @@
       <c r="J382" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K382" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
         <v>44</v>
       </c>
@@ -12931,8 +14134,11 @@
       <c r="J383" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K383" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
         <v>44</v>
       </c>
@@ -12963,8 +14169,11 @@
       <c r="J384" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K384" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A385" s="1" t="s">
         <v>44</v>
       </c>
@@ -12995,8 +14204,11 @@
       <c r="J385" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K385" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A386" s="1" t="s">
         <v>44</v>
       </c>
@@ -13027,8 +14239,11 @@
       <c r="J386" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K386" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A387" s="1" t="s">
         <v>44</v>
       </c>
@@ -13059,8 +14274,11 @@
       <c r="J387" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K387" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
         <v>47</v>
       </c>
@@ -13091,8 +14309,11 @@
       <c r="J388" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K388" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A389" s="1" t="s">
         <v>47</v>
       </c>
@@ -13123,8 +14344,11 @@
       <c r="J389" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K389" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
         <v>48</v>
       </c>
@@ -13155,8 +14379,11 @@
       <c r="J390" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K390" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A391" s="1" t="s">
         <v>48</v>
       </c>
@@ -13187,8 +14414,11 @@
       <c r="J391" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K391" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A392" s="1" t="s">
         <v>48</v>
       </c>
@@ -13219,8 +14449,11 @@
       <c r="J392" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K392" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
         <v>48</v>
       </c>
@@ -13251,8 +14484,11 @@
       <c r="J393" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K393" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A394" s="1" t="s">
         <v>48</v>
       </c>
@@ -13283,8 +14519,11 @@
       <c r="J394" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K394" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
         <v>48</v>
       </c>
@@ -13315,8 +14554,11 @@
       <c r="J395" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K395" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
         <v>48</v>
       </c>
@@ -13347,8 +14589,11 @@
       <c r="J396" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K396" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A397" s="1" t="s">
         <v>48</v>
       </c>
@@ -13379,8 +14624,11 @@
       <c r="J397" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K397" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A398" s="1" t="s">
         <v>48</v>
       </c>
@@ -13411,8 +14659,11 @@
       <c r="J398" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K398" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
         <v>48</v>
       </c>
@@ -13443,8 +14694,11 @@
       <c r="J399" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K399" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A400" s="1" t="s">
         <v>48</v>
       </c>
@@ -13475,8 +14729,11 @@
       <c r="J400" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K400" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A401" s="1" t="s">
         <v>48</v>
       </c>
@@ -13507,8 +14764,11 @@
       <c r="J401" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K401" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A402" s="1" t="s">
         <v>48</v>
       </c>
@@ -13539,8 +14799,11 @@
       <c r="J402" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K402" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A403" s="1" t="s">
         <v>48</v>
       </c>
@@ -13571,8 +14834,11 @@
       <c r="J403" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K403" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A404" s="1" t="s">
         <v>48</v>
       </c>
@@ -13603,8 +14869,11 @@
       <c r="J404" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K404" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A405" s="1" t="s">
         <v>48</v>
       </c>
@@ -13635,8 +14904,11 @@
       <c r="J405" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K405" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A406" s="1" t="s">
         <v>48</v>
       </c>
@@ -13667,8 +14939,11 @@
       <c r="J406" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K406" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A407" s="1" t="s">
         <v>48</v>
       </c>
@@ -13699,8 +14974,11 @@
       <c r="J407" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K407" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A408" s="1" t="s">
         <v>48</v>
       </c>
@@ -13731,8 +15009,11 @@
       <c r="J408" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K408" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A409" s="1" t="s">
         <v>48</v>
       </c>
@@ -13763,8 +15044,11 @@
       <c r="J409" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K409" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A410" s="1" t="s">
         <v>49</v>
       </c>
@@ -13795,8 +15079,11 @@
       <c r="J410" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K410" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A411" s="1" t="s">
         <v>49</v>
       </c>
@@ -13827,8 +15114,11 @@
       <c r="J411" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K411" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A412" s="1" t="s">
         <v>49</v>
       </c>
@@ -13859,8 +15149,11 @@
       <c r="J412" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K412" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A413" s="1" t="s">
         <v>49</v>
       </c>
@@ -13891,8 +15184,11 @@
       <c r="J413" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K413" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A414" s="1" t="s">
         <v>49</v>
       </c>
@@ -13923,8 +15219,11 @@
       <c r="J414" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K414" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A415" s="1" t="s">
         <v>49</v>
       </c>
@@ -13955,8 +15254,11 @@
       <c r="J415" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K415" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A416" s="1" t="s">
         <v>49</v>
       </c>
@@ -13987,8 +15289,11 @@
       <c r="J416" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K416" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A417" s="1" t="s">
         <v>49</v>
       </c>
@@ -14019,8 +15324,11 @@
       <c r="J417" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K417" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A418" s="1" t="s">
         <v>49</v>
       </c>
@@ -14051,8 +15359,11 @@
       <c r="J418" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K418" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A419" s="1" t="s">
         <v>49</v>
       </c>
@@ -14083,8 +15394,11 @@
       <c r="J419" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K419" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A420" s="1" t="s">
         <v>49</v>
       </c>
@@ -14115,8 +15429,11 @@
       <c r="J420" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K420" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A421" s="1" t="s">
         <v>49</v>
       </c>
@@ -14147,8 +15464,11 @@
       <c r="J421" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K421" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A422" s="1" t="s">
         <v>49</v>
       </c>
@@ -14179,8 +15499,11 @@
       <c r="J422" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K422" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A423" s="1" t="s">
         <v>49</v>
       </c>
@@ -14211,8 +15534,11 @@
       <c r="J423" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K423" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A424" s="1" t="s">
         <v>49</v>
       </c>
@@ -14243,8 +15569,11 @@
       <c r="J424" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K424" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A425" s="1" t="s">
         <v>49</v>
       </c>
@@ -14275,8 +15604,11 @@
       <c r="J425" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K425" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A426" s="1" t="s">
         <v>49</v>
       </c>
@@ -14307,8 +15639,11 @@
       <c r="J426" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K426" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A427" s="1" t="s">
         <v>49</v>
       </c>
@@ -14339,8 +15674,11 @@
       <c r="J427" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K427" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A428" s="1" t="s">
         <v>49</v>
       </c>
@@ -14371,8 +15709,11 @@
       <c r="J428" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K428" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A429" s="1" t="s">
         <v>49</v>
       </c>
@@ -14403,8 +15744,11 @@
       <c r="J429" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K429" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A430" s="1" t="s">
         <v>50</v>
       </c>
@@ -14435,8 +15779,11 @@
       <c r="J430" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K430" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A431" s="1" t="s">
         <v>50</v>
       </c>
@@ -14467,8 +15814,11 @@
       <c r="J431" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K431" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A432" s="1" t="s">
         <v>51</v>
       </c>
@@ -14499,8 +15849,11 @@
       <c r="J432" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K432" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A433" s="1" t="s">
         <v>51</v>
       </c>
@@ -14531,8 +15884,11 @@
       <c r="J433" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K433" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A434" s="1" t="s">
         <v>82</v>
       </c>
@@ -14563,8 +15919,11 @@
       <c r="J434" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K434" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A435" s="1" t="s">
         <v>82</v>
       </c>
@@ -14595,8 +15954,11 @@
       <c r="J435" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K435" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A436" s="1" t="s">
         <v>52</v>
       </c>
@@ -14627,8 +15989,11 @@
       <c r="J436" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K436" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A437" s="1" t="s">
         <v>52</v>
       </c>
@@ -14659,8 +16024,11 @@
       <c r="J437" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K437" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A438" s="1" t="s">
         <v>53</v>
       </c>
@@ -14691,8 +16059,11 @@
       <c r="J438" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K438" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A439" s="1" t="s">
         <v>53</v>
       </c>
@@ -14723,8 +16094,11 @@
       <c r="J439" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K439" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A440" s="1" t="s">
         <v>54</v>
       </c>
@@ -14755,8 +16129,11 @@
       <c r="J440" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K440" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A441" s="1" t="s">
         <v>54</v>
       </c>
@@ -14787,8 +16164,11 @@
       <c r="J441" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K441" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A442" s="1" t="s">
         <v>54</v>
       </c>
@@ -14819,8 +16199,11 @@
       <c r="J442" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K442" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A443" s="1" t="s">
         <v>54</v>
       </c>
@@ -14851,8 +16234,11 @@
       <c r="J443" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K443" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A444" s="1" t="s">
         <v>54</v>
       </c>
@@ -14883,8 +16269,11 @@
       <c r="J444" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K444" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A445" s="1" t="s">
         <v>54</v>
       </c>
@@ -14915,8 +16304,11 @@
       <c r="J445" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K445" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A446" s="1" t="s">
         <v>54</v>
       </c>
@@ -14947,8 +16339,11 @@
       <c r="J446" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K446" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A447" s="1" t="s">
         <v>54</v>
       </c>
@@ -14979,8 +16374,11 @@
       <c r="J447" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K447" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A448" s="1" t="s">
         <v>54</v>
       </c>
@@ -15011,8 +16409,11 @@
       <c r="J448" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K448" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A449" s="1" t="s">
         <v>54</v>
       </c>
@@ -15043,8 +16444,11 @@
       <c r="J449" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K449" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A450" s="1" t="s">
         <v>55</v>
       </c>
@@ -15075,8 +16479,11 @@
       <c r="J450" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K450" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A451" s="1" t="s">
         <v>55</v>
       </c>
@@ -15107,8 +16514,11 @@
       <c r="J451" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K451" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A452" s="1" t="s">
         <v>55</v>
       </c>
@@ -15139,8 +16549,11 @@
       <c r="J452" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K452" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A453" s="1" t="s">
         <v>55</v>
       </c>
@@ -15171,8 +16584,11 @@
       <c r="J453" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K453" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A454" s="1" t="s">
         <v>55</v>
       </c>
@@ -15203,8 +16619,11 @@
       <c r="J454" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K454" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A455" s="1" t="s">
         <v>55</v>
       </c>
@@ -15235,8 +16654,11 @@
       <c r="J455" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K455" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A456" s="1" t="s">
         <v>55</v>
       </c>
@@ -15267,8 +16689,11 @@
       <c r="J456" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K456" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A457" s="1" t="s">
         <v>55</v>
       </c>
@@ -15299,8 +16724,11 @@
       <c r="J457" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K457" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A458" s="1" t="s">
         <v>55</v>
       </c>
@@ -15331,8 +16759,11 @@
       <c r="J458" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K458" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A459" s="1" t="s">
         <v>55</v>
       </c>
@@ -15363,8 +16794,11 @@
       <c r="J459" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K459" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A460" s="1" t="s">
         <v>55</v>
       </c>
@@ -15395,8 +16829,11 @@
       <c r="J460" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K460" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A461" s="1" t="s">
         <v>55</v>
       </c>
@@ -15427,8 +16864,11 @@
       <c r="J461" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K461" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A462" s="1" t="s">
         <v>55</v>
       </c>
@@ -15459,8 +16899,11 @@
       <c r="J462" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K462" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A463" s="1" t="s">
         <v>55</v>
       </c>
@@ -15491,8 +16934,11 @@
       <c r="J463" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K463" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A464" s="1" t="s">
         <v>55</v>
       </c>
@@ -15523,8 +16969,11 @@
       <c r="J464" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K464" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A465" s="1" t="s">
         <v>55</v>
       </c>
@@ -15555,8 +17004,11 @@
       <c r="J465" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K465" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A466" s="1" t="s">
         <v>55</v>
       </c>
@@ -15587,8 +17039,11 @@
       <c r="J466" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K466" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A467" s="1" t="s">
         <v>55</v>
       </c>
@@ -15619,8 +17074,11 @@
       <c r="J467" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K467" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A468" s="1" t="s">
         <v>56</v>
       </c>
@@ -15651,8 +17109,11 @@
       <c r="J468" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K468" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A469" s="1" t="s">
         <v>56</v>
       </c>
@@ -15683,8 +17144,11 @@
       <c r="J469" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K469" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A470" s="1" t="s">
         <v>56</v>
       </c>
@@ -15715,8 +17179,11 @@
       <c r="J470" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K470" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A471" s="1" t="s">
         <v>56</v>
       </c>
@@ -15747,8 +17214,11 @@
       <c r="J471" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K471" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A472" s="1" t="s">
         <v>56</v>
       </c>
@@ -15779,8 +17249,11 @@
       <c r="J472" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K472" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A473" s="1" t="s">
         <v>56</v>
       </c>
@@ -15811,8 +17284,11 @@
       <c r="J473" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K473" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A474" s="1" t="s">
         <v>56</v>
       </c>
@@ -15843,8 +17319,11 @@
       <c r="J474" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K474" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A475" s="1" t="s">
         <v>56</v>
       </c>
@@ -15875,8 +17354,11 @@
       <c r="J475" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K475" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A476" s="1" t="s">
         <v>56</v>
       </c>
@@ -15907,8 +17389,11 @@
       <c r="J476" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K476" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A477" s="1" t="s">
         <v>56</v>
       </c>
@@ -15939,8 +17424,11 @@
       <c r="J477" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K477" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A478" s="1" t="s">
         <v>56</v>
       </c>
@@ -15971,8 +17459,11 @@
       <c r="J478" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K478" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A479" s="1" t="s">
         <v>56</v>
       </c>
@@ -16003,8 +17494,11 @@
       <c r="J479" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K479" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A480" s="1" t="s">
         <v>56</v>
       </c>
@@ -16035,8 +17529,11 @@
       <c r="J480" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K480" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A481" s="1" t="s">
         <v>56</v>
       </c>
@@ -16067,8 +17564,11 @@
       <c r="J481" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K481" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A482" s="1" t="s">
         <v>56</v>
       </c>
@@ -16099,8 +17599,11 @@
       <c r="J482" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K482" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A483" s="1" t="s">
         <v>56</v>
       </c>
@@ -16131,8 +17634,11 @@
       <c r="J483" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K483" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A484" s="1" t="s">
         <v>56</v>
       </c>
@@ -16163,8 +17669,11 @@
       <c r="J484" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K484" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A485" s="1" t="s">
         <v>56</v>
       </c>
@@ -16195,8 +17704,11 @@
       <c r="J485" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K485" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A486" s="1" t="s">
         <v>57</v>
       </c>
@@ -16227,8 +17739,11 @@
       <c r="J486" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K486" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A487" s="1" t="s">
         <v>57</v>
       </c>
@@ -16259,8 +17774,11 @@
       <c r="J487" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K487" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A488" s="1" t="s">
         <v>57</v>
       </c>
@@ -16291,8 +17809,11 @@
       <c r="J488" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K488" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A489" s="1" t="s">
         <v>57</v>
       </c>
@@ -16323,8 +17844,11 @@
       <c r="J489" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K489" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A490" s="1" t="s">
         <v>57</v>
       </c>
@@ -16355,8 +17879,11 @@
       <c r="J490" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K490" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A491" s="1" t="s">
         <v>57</v>
       </c>
@@ -16387,8 +17914,11 @@
       <c r="J491" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K491" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A492" s="1" t="s">
         <v>58</v>
       </c>
@@ -16419,8 +17949,11 @@
       <c r="J492" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K492" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A493" s="1" t="s">
         <v>58</v>
       </c>
@@ -16451,8 +17984,11 @@
       <c r="J493" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K493" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A494" s="1" t="s">
         <v>58</v>
       </c>
@@ -16483,8 +18019,11 @@
       <c r="J494" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K494" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A495" s="1" t="s">
         <v>58</v>
       </c>
@@ -16515,8 +18054,11 @@
       <c r="J495" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K495" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A496" s="1" t="s">
         <v>58</v>
       </c>
@@ -16547,8 +18089,11 @@
       <c r="J496" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K496" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A497" s="1" t="s">
         <v>58</v>
       </c>
@@ -16579,8 +18124,11 @@
       <c r="J497" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K497" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A498" s="1" t="s">
         <v>59</v>
       </c>
@@ -16611,8 +18159,11 @@
       <c r="J498" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K498" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A499" s="1" t="s">
         <v>59</v>
       </c>
@@ -16643,8 +18194,11 @@
       <c r="J499" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K499" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A500" s="1" t="s">
         <v>59</v>
       </c>
@@ -16675,8 +18229,11 @@
       <c r="J500" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K500" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A501" s="1" t="s">
         <v>59</v>
       </c>
@@ -16707,8 +18264,11 @@
       <c r="J501" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K501" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A502" s="1" t="s">
         <v>59</v>
       </c>
@@ -16739,8 +18299,11 @@
       <c r="J502" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K502" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A503" s="1" t="s">
         <v>59</v>
       </c>
@@ -16771,8 +18334,11 @@
       <c r="J503" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K503" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A504" s="1" t="s">
         <v>59</v>
       </c>
@@ -16803,8 +18369,11 @@
       <c r="J504" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K504" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A505" s="1" t="s">
         <v>59</v>
       </c>
@@ -16835,8 +18404,11 @@
       <c r="J505" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K505" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A506" s="1" t="s">
         <v>59</v>
       </c>
@@ -16867,8 +18439,11 @@
       <c r="J506" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K506" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A507" s="1" t="s">
         <v>59</v>
       </c>
@@ -16899,8 +18474,11 @@
       <c r="J507" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K507" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A508" s="1" t="s">
         <v>59</v>
       </c>
@@ -16931,8 +18509,11 @@
       <c r="J508" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K508" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A509" s="1" t="s">
         <v>59</v>
       </c>
@@ -16963,8 +18544,11 @@
       <c r="J509" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K509" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A510" s="1" t="s">
         <v>59</v>
       </c>
@@ -16995,8 +18579,11 @@
       <c r="J510" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K510" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A511" s="1" t="s">
         <v>59</v>
       </c>
@@ -17027,8 +18614,11 @@
       <c r="J511" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K511" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A512" s="1" t="s">
         <v>59</v>
       </c>
@@ -17059,8 +18649,11 @@
       <c r="J512" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K512" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A513" s="1" t="s">
         <v>59</v>
       </c>
@@ -17091,8 +18684,11 @@
       <c r="J513" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K513" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A514" s="1" t="s">
         <v>59</v>
       </c>
@@ -17123,8 +18719,11 @@
       <c r="J514" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K514" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A515" s="1" t="s">
         <v>59</v>
       </c>
@@ -17154,6 +18753,9 @@
       </c>
       <c r="J515" t="s">
         <v>76</v>
+      </c>
+      <c r="K515" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -17161,5 +18763,6 @@
     <sortCondition ref="A46:A73"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>